--- a/test_data/orange_test_data.xlsx
+++ b/test_data/orange_test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hybrid_framework\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F4E118-ADFD-4B71-952A-481F4AF5C242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DFDA79-3964-437C-94CF-FA65D6B8EF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{46998BAE-DE92-4190-8408-D4F458BE4837}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t xml:space="preserve"> username</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>File type not allowed</t>
+  </si>
+  <si>
+    <t>D:\demo_python.txt</t>
   </si>
 </sst>
 </file>
@@ -501,18 +504,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32972931-5C9E-4635-8E58-3AE4E44378BE}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -540,6 +543,20 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
     </row>
